--- a/test/org/hy/common/report/junit/image02/DataSheet_Pneumatic_zh-cn.xlsx
+++ b/test/org/hy/common/report/junit/image02/DataSheet_Pneumatic_zh-cn.xlsx
@@ -986,55 +986,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴忠仪表有限责任公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>控制阀数据表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>m</t>
     </r>
     <r>
@@ -1453,6 +1404,24 @@
   </si>
   <si>
     <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吴忠仪表有限责任
+      公司控制阀数据表</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,21 +1440,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1515,11 +1469,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1970,14 +1940,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1989,362 +1959,371 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2726,7 +2705,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A9" sqref="A9:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,75 +2724,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="121"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="115" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
       <c r="F2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="75" t="s">
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="122"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
       <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="122"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2838,10 +2817,10 @@
       <c r="M4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="122"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="112" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="20">
@@ -2850,116 +2829,116 @@
       <c r="C5" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
       <c r="L5" s="22" t="s">
         <v>149</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="122"/>
+      <c r="N5" s="58"/>
     </row>
     <row r="6" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="85" t="s">
+      <c r="L6" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="122"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="10">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="122"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="19">
         <v>4</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="83"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="19" t="s">
         <v>212</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="44" t="s">
         <v>215</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="M8" s="84"/>
-      <c r="N8" s="122"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="125" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="26">
@@ -2971,17 +2950,17 @@
       <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="82"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="82"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="20" t="s">
         <v>16</v>
       </c>
@@ -2994,30 +2973,30 @@
       <c r="M9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="122"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="12">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="85"/>
+      <c r="I10" s="89"/>
       <c r="J10" s="10" t="s">
         <v>25</v>
       </c>
@@ -3030,30 +3009,30 @@
       <c r="M10" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="122"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="85"/>
+      <c r="I11" s="89"/>
       <c r="J11" s="10" t="s">
         <v>32</v>
       </c>
@@ -3066,371 +3045,371 @@
       <c r="M11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="122"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="12">
         <v>8</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="E12" s="85"/>
+      <c r="D12" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="89"/>
       <c r="F12" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="H12" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="I12" s="89"/>
+      <c r="J12" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="40" t="s">
+      <c r="K12" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="L12" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="L12" s="40" t="s">
+      <c r="M12" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="M12" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="N12" s="122"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="12">
         <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="40" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="H13" s="89" t="s">
         <v>257</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="40" t="s">
+      <c r="K13" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="L13" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="M13" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="N13" s="122"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="12">
         <v>10</v>
       </c>
       <c r="C14" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="40" t="s">
+      <c r="G14" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="H14" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="I14" s="89"/>
+      <c r="J14" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="40" t="s">
+      <c r="K14" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="L14" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="M14" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="M14" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="N14" s="122"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="12">
         <v>11</v>
       </c>
       <c r="C15" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="40" t="s">
+      <c r="G15" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="H15" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="I15" s="89"/>
+      <c r="J15" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="40" t="s">
+      <c r="K15" s="40" t="s">
         <v>275</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="L15" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="M15" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="M15" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="N15" s="122"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="12">
         <v>12</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="H16" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="I16" s="89"/>
+      <c r="J16" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="I16" s="85"/>
-      <c r="J16" s="40" t="s">
+      <c r="K16" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="L16" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="M16" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="M16" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="N16" s="122"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="12">
         <v>13</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="40" t="s">
+      <c r="G17" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="H17" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="85" t="s">
+      <c r="I17" s="89"/>
+      <c r="J17" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="40" t="s">
+      <c r="K17" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="L17" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="M17" s="39" t="s">
         <v>292</v>
       </c>
-      <c r="M17" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="N17" s="122"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="12">
         <v>14</v>
       </c>
       <c r="C18" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="108"/>
+      <c r="F18" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="42" t="s">
+      <c r="G18" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="H18" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="I18" s="108"/>
+      <c r="J18" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="L18" s="42" t="s">
+      <c r="M18" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="M18" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="N18" s="122"/>
+      <c r="N18" s="58"/>
     </row>
     <row r="19" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="12">
         <v>15</v>
       </c>
       <c r="C19" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="E19" s="89"/>
+      <c r="F19" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="40" t="s">
+      <c r="G19" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="H19" s="89" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="I19" s="89"/>
+      <c r="J19" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="85"/>
-      <c r="J19" s="40" t="s">
+      <c r="K19" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="L19" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="M19" s="39" t="s">
         <v>309</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="N19" s="122"/>
+      <c r="N19" s="58"/>
     </row>
     <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="12">
         <v>16</v>
       </c>
       <c r="C20" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="E20" s="104"/>
+      <c r="F20" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="40" t="s">
+      <c r="G20" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="H20" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="I20" s="89"/>
+      <c r="J20" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="I20" s="85"/>
-      <c r="J20" s="40" t="s">
+      <c r="K20" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="L20" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="L20" s="40" t="s">
+      <c r="M20" s="39" t="s">
         <v>318</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>319</v>
-      </c>
-      <c r="N20" s="122"/>
+      <c r="N20" s="58"/>
     </row>
     <row r="21" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="79"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="28">
         <v>17</v>
       </c>
       <c r="C21" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="83" t="s">
+      <c r="E21" s="87"/>
+      <c r="F21" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="50" t="s">
+      <c r="G21" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="H21" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="I21" s="124"/>
+      <c r="J21" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="120"/>
-      <c r="J21" s="48" t="s">
+      <c r="K21" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="L21" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="M21" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="M21" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="N21" s="122"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78" t="s">
-        <v>347</v>
+      <c r="A22" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="B22" s="53">
         <v>18</v>
@@ -3438,20 +3417,20 @@
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="85"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="10" t="s">
         <v>46</v>
       </c>
@@ -3464,30 +3443,30 @@
       <c r="M22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="122"/>
+      <c r="N22" s="58"/>
     </row>
     <row r="23" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="52">
         <v>19</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="85"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="10" t="s">
         <v>52</v>
       </c>
@@ -3500,30 +3479,30 @@
       <c r="M23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="122"/>
+      <c r="N23" s="58"/>
     </row>
     <row r="24" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="51">
         <v>20</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="83"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="24" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="87"/>
       <c r="J24" s="24" t="s">
         <v>62</v>
       </c>
@@ -3536,25 +3515,25 @@
       <c r="M24" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="122"/>
+      <c r="N24" s="58"/>
     </row>
     <row r="25" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="81" t="s">
         <v>218</v>
       </c>
       <c r="B25" s="53">
         <v>21</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="82" t="s">
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="77" t="s">
+      <c r="G25" s="79"/>
+      <c r="H25" s="81" t="s">
         <v>219</v>
       </c>
       <c r="I25" s="26">
@@ -3563,60 +3542,60 @@
       <c r="J25" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="82" t="s">
+      <c r="K25" s="86" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="82"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="122"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="58"/>
     </row>
     <row r="26" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="52">
         <v>22</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="85" t="s">
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="78"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="12">
         <v>58</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K26" s="85" t="s">
+      <c r="K26" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="122"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
+      <c r="A27" s="82"/>
       <c r="B27" s="52">
         <v>23</v>
       </c>
       <c r="C27" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="96" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="107"/>
       <c r="F27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="78"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="12">
         <v>59</v>
       </c>
@@ -3632,27 +3611,27 @@
       <c r="M27" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="N27" s="122"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
+      <c r="A28" s="82"/>
       <c r="B28" s="52">
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="93"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="78"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="12">
         <v>60</v>
       </c>
@@ -3668,23 +3647,23 @@
       <c r="M28" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="N28" s="122"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="52">
         <v>25</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="85" t="s">
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="78"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="12">
         <v>61</v>
       </c>
@@ -3700,51 +3679,51 @@
       <c r="M29" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="122"/>
+      <c r="N29" s="58"/>
     </row>
     <row r="30" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
+      <c r="A30" s="82"/>
       <c r="B30" s="52">
         <v>26</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="86" t="s">
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="79"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="28">
         <v>62</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="83" t="s">
+      <c r="K30" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="122"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="58"/>
     </row>
     <row r="31" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="52">
         <v>27</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="86" t="s">
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="87"/>
-      <c r="H31" s="77" t="s">
+      <c r="G31" s="91"/>
+      <c r="H31" s="81" t="s">
         <v>220</v>
       </c>
       <c r="I31" s="26">
@@ -3753,28 +3732,28 @@
       <c r="J31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="L31" s="82"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="122"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="58"/>
     </row>
     <row r="32" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
+      <c r="A32" s="82"/>
       <c r="B32" s="52">
         <v>28</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="86" t="s">
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="78"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="12">
         <v>64</v>
       </c>
@@ -3790,23 +3769,23 @@
       <c r="M32" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="N32" s="122"/>
+      <c r="N32" s="58"/>
     </row>
     <row r="33" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
+      <c r="A33" s="82"/>
       <c r="B33" s="52">
         <v>29</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="86" t="s">
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="78"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="12">
         <v>65</v>
       </c>
@@ -3822,23 +3801,23 @@
       <c r="M33" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="N33" s="122"/>
+      <c r="N33" s="58"/>
     </row>
     <row r="34" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="52">
         <v>30</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C34" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="86" t="s">
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="78"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="82"/>
       <c r="I34" s="12">
         <v>66</v>
       </c>
@@ -3854,23 +3833,23 @@
       <c r="M34" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="N34" s="122"/>
+      <c r="N34" s="58"/>
     </row>
     <row r="35" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="52">
         <v>31</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="86" t="s">
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="78"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="12">
         <v>67</v>
       </c>
@@ -3886,23 +3865,23 @@
       <c r="M35" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="122"/>
+      <c r="N35" s="58"/>
     </row>
     <row r="36" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
+      <c r="A36" s="82"/>
       <c r="B36" s="52">
         <v>32</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="86" t="s">
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="78"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="82"/>
       <c r="I36" s="12">
         <v>68</v>
       </c>
@@ -3918,83 +3897,83 @@
       <c r="M36" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="N36" s="122"/>
+      <c r="N36" s="58"/>
     </row>
     <row r="37" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
+      <c r="A37" s="82"/>
       <c r="B37" s="52">
         <v>33</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="86" t="s">
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="78"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="12">
         <v>69</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="K37" s="85" t="s">
+      <c r="K37" s="89" t="s">
         <v>240</v>
       </c>
-      <c r="L37" s="85"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="122"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="58"/>
     </row>
     <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="52">
         <v>34</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="E38" s="92"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="79"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="28">
         <v>70</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="122"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="58"/>
     </row>
     <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
+      <c r="A39" s="82"/>
       <c r="B39" s="52">
         <v>35</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="86" t="s">
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="87"/>
-      <c r="H39" s="77" t="s">
+      <c r="G39" s="91"/>
+      <c r="H39" s="81" t="s">
         <v>221</v>
       </c>
       <c r="I39" s="26">
@@ -4003,30 +3982,30 @@
       <c r="J39" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K39" s="82" t="s">
+      <c r="K39" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="L39" s="82"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="122"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="58"/>
     </row>
     <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
+      <c r="A40" s="82"/>
       <c r="B40" s="52">
         <v>36</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="111" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" s="112"/>
-      <c r="F40" s="86" t="s">
+      <c r="D40" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" s="104"/>
+      <c r="F40" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="78"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="12">
         <v>72</v>
       </c>
@@ -4042,42 +4021,42 @@
       <c r="M40" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="N40" s="122"/>
+      <c r="N40" s="58"/>
     </row>
     <row r="41" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="79"/>
+      <c r="A41" s="83"/>
       <c r="B41" s="51">
         <v>37</v>
       </c>
       <c r="C41" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="102" t="s">
         <v>331</v>
       </c>
-      <c r="D41" s="113" t="s">
+      <c r="E41" s="102"/>
+      <c r="F41" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="46" t="s">
+      <c r="G41" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="G41" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="H41" s="78"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="12">
         <v>73</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K41" s="85" t="s">
+      <c r="K41" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="122"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="58"/>
     </row>
     <row r="42" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="81" t="s">
         <v>223</v>
       </c>
       <c r="B42" s="53">
@@ -4086,41 +4065,41 @@
       <c r="C42" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="78"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="82"/>
       <c r="I42" s="12">
         <v>74</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K42" s="85" t="s">
+      <c r="K42" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="122"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="58"/>
     </row>
     <row r="43" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="78"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="52">
         <v>39</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="78"/>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="12">
         <v>75</v>
       </c>
@@ -4136,55 +4115,55 @@
       <c r="M43" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="N43" s="122"/>
+      <c r="N43" s="58"/>
     </row>
     <row r="44" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="78"/>
+      <c r="A44" s="82"/>
       <c r="B44" s="52">
         <v>40</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86" t="s">
+      <c r="E44" s="90"/>
+      <c r="F44" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="79"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="28">
         <v>76</v>
       </c>
       <c r="J44" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K44" s="83" t="s">
+      <c r="K44" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="122"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="78"/>
+      <c r="A45" s="82"/>
       <c r="B45" s="52">
         <v>41</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86" t="s">
+      <c r="E45" s="90"/>
+      <c r="F45" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="77" t="s">
+      <c r="G45" s="91"/>
+      <c r="H45" s="81" t="s">
         <v>222</v>
       </c>
       <c r="I45" s="26">
@@ -4193,32 +4172,32 @@
       <c r="J45" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K45" s="82" t="s">
+      <c r="K45" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="L45" s="82"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="122"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="58"/>
     </row>
     <row r="46" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="78"/>
+      <c r="A46" s="82"/>
       <c r="B46" s="52">
         <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="D46" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="92"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="10" t="s">
         <v>108</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="H46" s="78"/>
+      <c r="H46" s="82"/>
       <c r="I46" s="12">
         <v>78</v>
       </c>
@@ -4234,27 +4213,27 @@
       <c r="M46" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="N46" s="122"/>
+      <c r="N46" s="58"/>
     </row>
     <row r="47" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="52">
         <v>43</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="92"/>
+      <c r="E47" s="96"/>
       <c r="F47" s="10" t="s">
         <v>245</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="78"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="12">
         <v>79</v>
       </c>
@@ -4264,81 +4243,81 @@
       <c r="K47" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="L47" s="85" t="s">
-        <v>335</v>
-      </c>
-      <c r="M47" s="76"/>
-      <c r="N47" s="122"/>
+      <c r="L47" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" s="80"/>
+      <c r="N47" s="58"/>
     </row>
     <row r="48" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="78"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="52">
         <v>44</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="78"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="82"/>
       <c r="I48" s="12">
         <v>80</v>
       </c>
       <c r="J48" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="K48" s="85" t="s">
+      <c r="K48" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="L48" s="85"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="122"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="58"/>
     </row>
     <row r="49" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="78"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="52">
         <v>45</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="93" t="s">
+      <c r="D49" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="93"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H49" s="79"/>
+      <c r="H49" s="83"/>
       <c r="I49" s="28">
         <v>81</v>
       </c>
       <c r="J49" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="83" t="s">
+      <c r="K49" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="L49" s="83"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="122"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="58"/>
     </row>
     <row r="50" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="78"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="52">
         <v>46</v>
       </c>
-      <c r="C50" s="114" t="s">
+      <c r="C50" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="114"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="10" t="s">
         <v>117</v>
       </c>
@@ -4348,275 +4327,275 @@
       <c r="G50" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="H50" s="81" t="s">
         <v>225</v>
       </c>
       <c r="I50" s="26">
         <v>82</v>
       </c>
-      <c r="J50" s="90" t="s">
+      <c r="J50" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="K50" s="90"/>
-      <c r="L50" s="88" t="s">
+      <c r="K50" s="94"/>
+      <c r="L50" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="M50" s="89"/>
-      <c r="N50" s="123"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="59"/>
     </row>
     <row r="51" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="79"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="51">
         <v>47</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="78"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="82"/>
       <c r="I51" s="12">
         <v>83</v>
       </c>
-      <c r="J51" s="92" t="s">
+      <c r="J51" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="K51" s="92"/>
-      <c r="L51" s="86" t="s">
+      <c r="K51" s="96"/>
+      <c r="L51" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="M51" s="87"/>
-      <c r="N51" s="123"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="59"/>
     </row>
     <row r="52" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="81" t="s">
         <v>224</v>
       </c>
       <c r="B52" s="53">
         <v>48</v>
       </c>
-      <c r="C52" s="115" t="s">
+      <c r="C52" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" s="99"/>
+      <c r="E52" s="98" t="s">
         <v>323</v>
       </c>
-      <c r="D52" s="116"/>
-      <c r="E52" s="115" t="s">
-        <v>324</v>
-      </c>
-      <c r="F52" s="116"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="78"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="12">
         <v>84</v>
       </c>
-      <c r="J52" s="92" t="s">
+      <c r="J52" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="K52" s="92"/>
-      <c r="L52" s="86" t="s">
+      <c r="K52" s="96"/>
+      <c r="L52" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="M52" s="87"/>
-      <c r="N52" s="123"/>
+      <c r="M52" s="91"/>
+      <c r="N52" s="59"/>
     </row>
     <row r="53" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="78"/>
+      <c r="A53" s="82"/>
       <c r="B53" s="52">
         <v>49</v>
       </c>
-      <c r="C53" s="111" t="s">
+      <c r="C53" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="D53" s="122"/>
+      <c r="E53" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="D53" s="118"/>
-      <c r="E53" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="F53" s="118"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="78"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="82"/>
       <c r="I53" s="12">
         <v>85</v>
       </c>
-      <c r="J53" s="92" t="s">
+      <c r="J53" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="K53" s="92"/>
-      <c r="L53" s="86" t="s">
+      <c r="K53" s="96"/>
+      <c r="L53" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="M53" s="87"/>
-      <c r="N53" s="123"/>
+      <c r="M53" s="91"/>
+      <c r="N53" s="59"/>
     </row>
     <row r="54" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="78"/>
+      <c r="A54" s="82"/>
       <c r="B54" s="52">
         <v>50</v>
       </c>
-      <c r="C54" s="111" t="s">
+      <c r="C54" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="122"/>
+      <c r="E54" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="D54" s="118"/>
-      <c r="E54" s="111" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" s="118"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="78"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="82"/>
       <c r="I54" s="12">
         <v>86</v>
       </c>
-      <c r="J54" s="92" t="s">
+      <c r="J54" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="K54" s="92"/>
-      <c r="L54" s="86" t="s">
+      <c r="K54" s="96"/>
+      <c r="L54" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="M54" s="87"/>
-      <c r="N54" s="123"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="59"/>
     </row>
     <row r="55" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="79"/>
+      <c r="A55" s="83"/>
       <c r="B55" s="51">
         <v>51</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D55" s="77"/>
+      <c r="E55" s="76" t="s">
         <v>329</v>
       </c>
-      <c r="D55" s="73"/>
-      <c r="E55" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="79"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="28">
         <v>87</v>
       </c>
-      <c r="J55" s="91" t="s">
+      <c r="J55" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="K55" s="91"/>
-      <c r="L55" s="80" t="s">
+      <c r="K55" s="95"/>
+      <c r="L55" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="M55" s="81"/>
-      <c r="N55" s="123"/>
+      <c r="M55" s="85"/>
+      <c r="N55" s="59"/>
     </row>
     <row r="56" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="64" t="s">
         <v>226</v>
       </c>
       <c r="B56" s="53">
         <v>52</v>
       </c>
-      <c r="C56" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="124"/>
+      <c r="C56" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="61"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="52">
         <v>53</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="65"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="69"/>
       <c r="L57" s="54" t="s">
         <v>189</v>
       </c>
       <c r="M57" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="N57" s="122"/>
+      <c r="N57" s="58"/>
     </row>
     <row r="58" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="61"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="52">
         <v>54</v>
       </c>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="68"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="72"/>
       <c r="L58" s="55" t="s">
         <v>190</v>
       </c>
       <c r="M58" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="N58" s="122"/>
+      <c r="N58" s="58"/>
     </row>
     <row r="59" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="61"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="52">
         <v>55</v>
       </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="68"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="71"/>
+      <c r="K59" s="72"/>
       <c r="L59" s="55" t="s">
         <v>191</v>
       </c>
       <c r="M59" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="N59" s="122"/>
+      <c r="N59" s="58"/>
     </row>
     <row r="60" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="62"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="51">
         <v>56</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="71"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="75"/>
       <c r="L60" s="56" t="s">
         <v>192</v>
       </c>
       <c r="M60" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="N60" s="122"/>
+      <c r="N60" s="58"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
